--- a/results/I3_N5_M2_T15_C100_DepCentral_s3_P1_res.xlsx
+++ b/results/I3_N5_M2_T15_C100_DepCentral_s3_P1_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1180.587864717091</v>
+        <v>1474.289011230924</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.007999897003173828</v>
+        <v>0.002000093460083008</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>26.18571823728904</v>
+        <v>20.71423809492234</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.2324156664366</v>
+        <v>5.315063262079851</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.344562146235813</v>
+        <v>4.889836398081229</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>684.2600000000029</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>473.03</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -711,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -722,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -733,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -744,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -813,7 +813,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -824,7 +824,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -835,7 +835,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -907,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5.069516742254631</v>
+        <v>6.579377207014334</v>
       </c>
     </row>
     <row r="4">
@@ -915,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>9.684936737920157</v>
       </c>
     </row>
     <row r="5">
@@ -931,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2.624823803610445</v>
+        <v>12.37517619638957</v>
       </c>
     </row>
     <row r="7">
@@ -939,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2.957840319717379</v>
+        <v>12.04215968028263</v>
       </c>
     </row>
     <row r="8">
@@ -955,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>15</v>
+        <v>13.61204927984102</v>
       </c>
     </row>
   </sheetData>
@@ -969,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1015,10 +1015,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1029,10 +1029,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1043,10 +1043,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1057,10 +1057,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
@@ -1071,13 +1071,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -1085,15 +1085,127 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>4</v>
+      </c>
+      <c r="B9" t="n">
+        <v>6</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>4</v>
+      </c>
+      <c r="B10" t="n">
+        <v>6</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>4</v>
+      </c>
+      <c r="B11" t="n">
+        <v>6</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5</v>
+      </c>
+      <c r="B12" t="n">
+        <v>4</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" t="n">
+        <v>4</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" t="n">
+        <v>4</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5</v>
+      </c>
+      <c r="B15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" t="n">
+        <v>4</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1196,7 +1308,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>54.00999999999964</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
@@ -1207,7 +1319,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>53.8</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9">
@@ -1218,7 +1330,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>56.79499999999963</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10">
@@ -1229,7 +1341,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>53.26999999999964</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11">
@@ -1240,7 +1352,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>55.17499999999963</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12">
@@ -1251,7 +1363,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>132.5199999999994</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13">
@@ -1262,7 +1374,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>143.7649999999994</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14">
@@ -1273,7 +1385,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>134.9399999999994</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15">
@@ -1284,7 +1396,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>139.9649999999994</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16">
@@ -1295,7 +1407,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>138.1299999999994</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17">
@@ -1306,7 +1418,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>131.6600000000009</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18">
@@ -1317,7 +1429,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>123.1550000000009</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19">
@@ -1328,7 +1440,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>129.8550000000009</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20">
@@ -1339,7 +1451,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>131.7850000000009</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21">
@@ -1350,7 +1462,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>136.3550000000009</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22">
@@ -1361,7 +1473,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>55.62000000000029</v>
+        <v>214</v>
       </c>
     </row>
     <row r="23">
@@ -1372,7 +1484,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>59.11000000000029</v>
+        <v>254</v>
       </c>
     </row>
     <row r="24">
@@ -1383,7 +1495,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>59.63000000000029</v>
+        <v>228</v>
       </c>
     </row>
     <row r="25">
@@ -1394,7 +1506,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>59.33000000000029</v>
+        <v>228</v>
       </c>
     </row>
     <row r="26">
@@ -1405,7 +1517,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>57.65</v>
+        <v>230</v>
       </c>
     </row>
     <row r="27">
@@ -1416,7 +1528,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>91.97000000000102</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28">
@@ -1427,7 +1539,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>91.57500000000101</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29">
@@ -1438,7 +1550,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>94.24000000000102</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30">
@@ -1449,7 +1561,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>101.065000000001</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31">
@@ -1460,7 +1572,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>100.945000000001</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32">
@@ -1471,7 +1583,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>131.6600000000009</v>
+        <v>214</v>
       </c>
     </row>
     <row r="33">
@@ -1482,7 +1594,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>123.1550000000009</v>
+        <v>254</v>
       </c>
     </row>
     <row r="34">
@@ -1493,7 +1605,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>129.8550000000009</v>
+        <v>228</v>
       </c>
     </row>
     <row r="35">
@@ -1504,7 +1616,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>131.7850000000009</v>
+        <v>228</v>
       </c>
     </row>
     <row r="36">
@@ -1515,7 +1627,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>136.3550000000009</v>
+        <v>230</v>
       </c>
     </row>
     <row r="37">
@@ -1526,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>132.5199999999994</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38">
@@ -1537,7 +1649,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>143.7649999999994</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39">
@@ -1548,7 +1660,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>134.9399999999994</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40">
@@ -1559,7 +1671,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>139.9649999999994</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41">
@@ -1570,7 +1682,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>138.1299999999994</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1617,7 +1729,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>31.66000000000088</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3">
@@ -1628,7 +1740,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>23.15500000000087</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4">
@@ -1639,7 +1751,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>29.85500000000087</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5">
@@ -1650,7 +1762,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>31.78500000000088</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6">
@@ -1661,7 +1773,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>36.35500000000087</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7">
@@ -1672,7 +1784,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>32.51999999999941</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1683,7 +1795,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>43.76499999999942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1694,7 +1806,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>34.93999999999943</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1705,7 +1817,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>39.96499999999941</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1716,7 +1828,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>38.12999999999943</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1763,7 +1875,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>11.71</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1774,7 +1886,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>5.64</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1785,7 +1897,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>12.58</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1796,7 +1908,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>10.91</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1807,7 +1919,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>8.01</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1818,7 +1930,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>7.18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1829,7 +1941,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>6.895</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1840,7 +1952,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>2.985</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -1851,7 +1963,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>3.18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1862,7 +1974,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>3.585</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1873,7 +1985,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>5.91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1884,7 +1996,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>7.145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1895,7 +2007,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>6.78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1906,7 +2018,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>7.455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1917,7 +2029,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5.855</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1928,7 +2040,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>11.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1939,7 +2051,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>17.095</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1950,7 +2062,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>21.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1961,7 +2073,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>11.26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1972,7 +2084,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>16.935</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1983,7 +2095,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>9.625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1994,7 +2106,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>12.98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2005,7 +2117,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>7.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2016,7 +2128,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>13.585</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2027,7 +2139,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>8.205</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2041,7 +2153,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2123,7 +2235,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2134,7 +2246,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
@@ -2145,7 +2257,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
@@ -2156,7 +2268,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
@@ -2167,7 +2279,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
@@ -2181,7 +2293,7 @@
         <v>5</v>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -2192,9 +2304,42 @@
         <v>5</v>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5</v>
+      </c>
+      <c r="B15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="n">
         <v>1</v>
       </c>
     </row>
